--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksymilian/Downloads/Projekty/Football/Football-season-Poisson-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D395E-AE74-40C0-A069-E288EF5507B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804882C-8049-7945-96B5-99819FBE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ekstraklasa" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="313">
   <si>
     <t>Arka</t>
   </si>
@@ -127,9 +127,6 @@
     <t>1 Kurminowski</t>
   </si>
   <si>
-    <t>1 Śpiewak</t>
-  </si>
-  <si>
     <t>1 Jean Carlos</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>1 Trubeha</t>
   </si>
   <si>
-    <t>3 Sekulski</t>
-  </si>
-  <si>
     <t>1 Bonecki</t>
   </si>
   <si>
@@ -730,9 +724,6 @@
     <t>1 Tomczyk</t>
   </si>
   <si>
-    <t>1 Novothny</t>
-  </si>
-  <si>
     <t>1 Lewkot</t>
   </si>
   <si>
@@ -742,15 +733,9 @@
     <t>1 Kukułowicz</t>
   </si>
   <si>
-    <t>1 Sobczak</t>
-  </si>
-  <si>
     <t>1 Oliveira</t>
   </si>
   <si>
-    <t>1 Gaprindaszwili</t>
-  </si>
-  <si>
     <t>1 Stolc</t>
   </si>
   <si>
@@ -766,9 +751,6 @@
     <t>2 Stanclik</t>
   </si>
   <si>
-    <t>1 Podliński</t>
-  </si>
-  <si>
     <t>1 Mandrysz</t>
   </si>
   <si>
@@ -796,12 +778,6 @@
     <t>1 Kreković</t>
   </si>
   <si>
-    <t>1 Banach</t>
-  </si>
-  <si>
-    <t>1 Zapolnik</t>
-  </si>
-  <si>
     <t>2 Karasek</t>
   </si>
   <si>
@@ -832,15 +808,6 @@
     <t>1 Dudzińśki</t>
   </si>
   <si>
-    <t>1 Bieroński</t>
-  </si>
-  <si>
-    <t>1 Ertlthaler</t>
-  </si>
-  <si>
-    <t>1 Keiblinger</t>
-  </si>
-  <si>
     <t>1 Krzak</t>
   </si>
   <si>
@@ -850,9 +817,6 @@
     <t>1 Matyjewicz</t>
   </si>
   <si>
-    <t>1 Wróbel</t>
-  </si>
-  <si>
     <t>3 Musik</t>
   </si>
   <si>
@@ -877,18 +841,9 @@
     <t>2 Orlik</t>
   </si>
   <si>
-    <t>2 Janaszek</t>
-  </si>
-  <si>
     <t>1 Litwa</t>
   </si>
   <si>
-    <t>2 Szczepan</t>
-  </si>
-  <si>
-    <t>1 Ibe-Torti</t>
-  </si>
-  <si>
     <t>1 Norlin</t>
   </si>
   <si>
@@ -898,9 +853,6 @@
     <t>1 Wzięch</t>
   </si>
   <si>
-    <t>2 Wasin</t>
-  </si>
-  <si>
     <t>1 Tabara</t>
   </si>
   <si>
@@ -917,6 +869,108 @@
   </si>
   <si>
     <t>1 Diallo</t>
+  </si>
+  <si>
+    <t>3 Wróbel</t>
+  </si>
+  <si>
+    <t>1 Różycki</t>
+  </si>
+  <si>
+    <t>3 Zapolnik</t>
+  </si>
+  <si>
+    <t>1 Sitek</t>
+  </si>
+  <si>
+    <t>2 Banach</t>
+  </si>
+  <si>
+    <t>2 Ibe-Torti</t>
+  </si>
+  <si>
+    <t>1 Gvozdenović</t>
+  </si>
+  <si>
+    <t>1 Mehremić</t>
+  </si>
+  <si>
+    <t>1 Thiago</t>
+  </si>
+  <si>
+    <t>2 Sobczak</t>
+  </si>
+  <si>
+    <t>2 Gaprindaszwili</t>
+  </si>
+  <si>
+    <t>4 Janaszek</t>
+  </si>
+  <si>
+    <t>1 Zbozień</t>
+  </si>
+  <si>
+    <t>2 Novothny</t>
+  </si>
+  <si>
+    <t>3 Szczepan</t>
+  </si>
+  <si>
+    <t>1 Łaski</t>
+  </si>
+  <si>
+    <t>1 Duarte</t>
+  </si>
+  <si>
+    <t>1 Duda</t>
+  </si>
+  <si>
+    <t>1 Kort</t>
+  </si>
+  <si>
+    <t>1 Lasek</t>
+  </si>
+  <si>
+    <t>2 Podliński</t>
+  </si>
+  <si>
+    <t>2 Ertlthaler</t>
+  </si>
+  <si>
+    <t>2 Keiblinger</t>
+  </si>
+  <si>
+    <t>2 Bieroński</t>
+  </si>
+  <si>
+    <t>2 Śpiewak</t>
+  </si>
+  <si>
+    <t>1 Młyński</t>
+  </si>
+  <si>
+    <t>3 Wasin</t>
+  </si>
+  <si>
+    <t>2 Koton</t>
+  </si>
+  <si>
+    <t>2 Michalik</t>
+  </si>
+  <si>
+    <t>1 Kostka</t>
+  </si>
+  <si>
+    <t>4 Sekulski</t>
+  </si>
+  <si>
+    <t>Warta 0:0</t>
+  </si>
+  <si>
+    <t>Odra 1:1</t>
+  </si>
+  <si>
+    <t>1 Rocha</t>
   </si>
 </sst>
 </file>
@@ -924,8 +978,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1344,9 +1398,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1354,43 +1408,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1409,7 +1456,6 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1425,45 +1471,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1528,30 +1551,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -1574,9 +1573,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1614,9 +1613,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,26 +1648,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1701,26 +1683,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1896,35 +1861,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="1"/>
+    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:20" ht="20" thickBot="1">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="19">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18">
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7">
         <v>1</v>
@@ -2095,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="S3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2157,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18">
+    <row r="5" spans="1:20" ht="19">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2201,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" s="4">
         <v>5</v>
@@ -2216,7 +2181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="1:20" ht="20" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="O6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P6" s="7">
         <v>4</v>
@@ -2275,921 +2240,904 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="1:20" ht="20" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <f>B5-B6</f>
+        <f t="shared" ref="B7:I7" si="0">B5-B6</f>
         <v>-2</v>
       </c>
       <c r="C7" s="10">
-        <f>C5-C6</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D7" s="10">
-        <f>D5-D6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E7" s="10">
-        <f>E5-E6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F7" s="10">
-        <f>F5-F6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="10">
-        <f>G5-G6</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="H7" s="10">
-        <f>H5-H6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I7" s="10">
-        <f>I5-I6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="K7" s="10">
-        <f>K5-K6</f>
+        <f t="shared" ref="K7:S7" si="1">K5-K6</f>
         <v>-1</v>
       </c>
       <c r="L7" s="10">
-        <f>L5-L6</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="M7" s="10">
-        <f>M5-M6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="10">
-        <f>N5-N6</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="O7" s="10">
-        <f>O5-O6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P7" s="10">
-        <f>P5-P6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q7" s="10">
-        <f>Q5-Q6</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="R7" s="10">
-        <f>R5-R6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S7" s="11">
-        <f>S5-S6</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:20" ht="19">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="14"/>
+      <c r="B9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="32"/>
+      <c r="B10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="32"/>
+      <c r="B11" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="E12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="32"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="N8" s="29" t="s">
+      <c r="D13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="32"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="32"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="17"/>
-      <c r="B9" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="32"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="38"/>
-      <c r="B11" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="31" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="37"/>
-      <c r="B12" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31" t="s">
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="32"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="38"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="38"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="38"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="38"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="38"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="37"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="17"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
+    <row r="19" spans="1:20" ht="16" thickBot="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="D19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" ht="18">
+    <row r="20" spans="1:20" ht="19">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="44"/>
+      <c r="O20" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" ht="19">
+      <c r="A21" s="6"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="50" t="s">
+      <c r="J21" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="S21" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" ht="20" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" ht="19">
+      <c r="A23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="S23" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" ht="20" thickBot="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" ht="19">
+      <c r="A25" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="61"/>
+      <c r="F25" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="R25" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="S25" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="32"/>
+      <c r="B26" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="R20" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="S20" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" ht="18">
-      <c r="A21" s="6"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" s="44" t="s">
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" ht="16" thickBot="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="S21" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" ht="18.600000000000001" thickBot="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="1:20" ht="18">
-      <c r="A23" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="N23" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="O23" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="S23" s="62"/>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="1:20" ht="18.600000000000001" thickBot="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" ht="20" thickBot="1">
+      <c r="A28" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="N24" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="1:20" ht="18">
-      <c r="A25" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="N25" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="O25" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="P25" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="R25" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="S25" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="38"/>
-      <c r="B26" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="78">
+      <c r="B28" s="70">
         <v>-1.0669999999999999</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="71">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="71">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="71">
         <v>3.0670000000000002</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="71">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="71">
         <v>-1.0880000000000001</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="71">
         <v>2.0089999999999999</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="71">
         <v>0.47699999999999998</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="71">
         <v>0.55900000000000005</v>
       </c>
-      <c r="K28" s="79">
+      <c r="K28" s="71">
         <v>0.51600000000000001</v>
       </c>
-      <c r="L28" s="79">
+      <c r="L28" s="71">
         <v>-0.49</v>
       </c>
-      <c r="M28" s="79">
+      <c r="M28" s="71">
         <v>0.2</v>
       </c>
-      <c r="N28" s="79">
+      <c r="N28" s="71">
         <v>-1.3939999999999999</v>
       </c>
-      <c r="O28" s="79">
+      <c r="O28" s="71">
         <v>1.056</v>
       </c>
-      <c r="P28" s="79">
+      <c r="P28" s="71">
         <v>1.028</v>
       </c>
-      <c r="Q28" s="79">
+      <c r="Q28" s="71">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="R28" s="79">
+      <c r="R28" s="71">
         <v>0.622</v>
       </c>
-      <c r="S28" s="80">
+      <c r="S28" s="72">
         <v>1.6120000000000001</v>
       </c>
       <c r="T28" s="12"/>
@@ -3221,19 +3169,13 @@
     <sortCondition descending="1" ref="S8:S16"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -3266,110 +3208,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB85024-32B7-4AEB-A5FF-9AFE32D6E65D}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.796875" style="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:20" ht="20" thickBot="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -3378,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
         <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -3390,13 +3332,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -3408,15 +3350,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18">
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -3431,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -3443,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -3458,16 +3400,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="7">
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3484,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -3502,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3511,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -3520,72 +3462,72 @@
         <v>1</v>
       </c>
       <c r="R4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18">
+    <row r="5" spans="1:20" ht="19">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11</v>
-      </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
       <c r="I5" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="4">
         <v>10</v>
       </c>
       <c r="N5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P5" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="6" spans="1:20" ht="20" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3593,64 +3535,64 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7">
         <v>4</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
       <c r="R6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="1:20" ht="20" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="10">
         <f>B5-B6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" ref="C7:S7" si="0">C5-C6</f>
@@ -3658,19 +3600,19 @@
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
@@ -3685,11 +3627,11 @@
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="0"/>
@@ -3697,15 +3639,15 @@
       </c>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="0"/>
@@ -3713,508 +3655,489 @@
       </c>
       <c r="R7" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:20" ht="19">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="16"/>
+      <c r="B9" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="I9" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="17"/>
+      <c r="B10" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="17"/>
+      <c r="B11" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="P11" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="18"/>
+      <c r="B12" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="C12" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="O13" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="P13" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="19"/>
-      <c r="B9" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="20"/>
-      <c r="B10" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="20"/>
-      <c r="B11" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="21"/>
-      <c r="B12" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="20"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="20"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="20"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="20"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="20"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="21"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="21"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20">
@@ -4565,19 +4488,13 @@
     <sortCondition descending="1" ref="M8:M14"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksymilian/Downloads/Projekty/Football/Football-season-Poisson-model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksm\Downloads\Inne\Football-season-Poisson-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804882C-8049-7945-96B5-99819FBE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8F2123-D914-4AC8-B7E3-8AF9217F5344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ekstraklasa" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="332">
   <si>
     <t>Arka</t>
   </si>
@@ -229,9 +229,6 @@
     <t>1 Zahović</t>
   </si>
   <si>
-    <t>1 Banaszak</t>
-  </si>
-  <si>
     <t>1 Nowak</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>1 Gholizadeh</t>
   </si>
   <si>
-    <t>1 Trubeha</t>
-  </si>
-  <si>
     <t>1 Bonecki</t>
   </si>
   <si>
@@ -733,12 +727,6 @@
     <t>1 Kukułowicz</t>
   </si>
   <si>
-    <t>1 Oliveira</t>
-  </si>
-  <si>
-    <t>1 Stolc</t>
-  </si>
-  <si>
     <t>1 Mansfeld</t>
   </si>
   <si>
@@ -796,9 +784,6 @@
     <t>1 Vitalucci</t>
   </si>
   <si>
-    <t>4 Zwoilński</t>
-  </si>
-  <si>
     <t>1 Kiss</t>
   </si>
   <si>
@@ -811,21 +796,12 @@
     <t>1 Krzak</t>
   </si>
   <si>
-    <t>1 Stangret</t>
-  </si>
-  <si>
     <t>1 Matyjewicz</t>
   </si>
   <si>
-    <t>3 Musik</t>
-  </si>
-  <si>
     <t>1 Łyczko</t>
   </si>
   <si>
-    <t>1 Duljević</t>
-  </si>
-  <si>
     <t>2 Prokić</t>
   </si>
   <si>
@@ -862,9 +838,6 @@
     <t>1 Deja</t>
   </si>
   <si>
-    <t>3 Zjawiński</t>
-  </si>
-  <si>
     <t>1 Bochnak</t>
   </si>
   <si>
@@ -898,9 +871,6 @@
     <t>1 Thiago</t>
   </si>
   <si>
-    <t>2 Sobczak</t>
-  </si>
-  <si>
     <t>2 Gaprindaszwili</t>
   </si>
   <si>
@@ -913,27 +883,18 @@
     <t>2 Novothny</t>
   </si>
   <si>
-    <t>3 Szczepan</t>
-  </si>
-  <si>
     <t>1 Łaski</t>
   </si>
   <si>
     <t>1 Duarte</t>
   </si>
   <si>
-    <t>1 Duda</t>
-  </si>
-  <si>
     <t>1 Kort</t>
   </si>
   <si>
     <t>1 Lasek</t>
   </si>
   <si>
-    <t>2 Podliński</t>
-  </si>
-  <si>
     <t>2 Ertlthaler</t>
   </si>
   <si>
@@ -971,6 +932,102 @@
   </si>
   <si>
     <t>1 Rocha</t>
+  </si>
+  <si>
+    <t>4 Sobczak</t>
+  </si>
+  <si>
+    <t>2 Oliveira</t>
+  </si>
+  <si>
+    <t>1 Letniowski</t>
+  </si>
+  <si>
+    <t>1 Nowakowski</t>
+  </si>
+  <si>
+    <t>2 Stolc</t>
+  </si>
+  <si>
+    <t>1 Ratajczyk</t>
+  </si>
+  <si>
+    <t>1 Auzmendi</t>
+  </si>
+  <si>
+    <t>4 Zjawiński</t>
+  </si>
+  <si>
+    <t>1 Nastić</t>
+  </si>
+  <si>
+    <t>2 Banaszak</t>
+  </si>
+  <si>
+    <t>1 Szczytniewski</t>
+  </si>
+  <si>
+    <t>1 Nono</t>
+  </si>
+  <si>
+    <t>2 Wojtkowski</t>
+  </si>
+  <si>
+    <t>1 Urban</t>
+  </si>
+  <si>
+    <t>1 A.Piotrowski</t>
+  </si>
+  <si>
+    <t>2 Trubeha</t>
+  </si>
+  <si>
+    <t>1 Strzałek</t>
+  </si>
+  <si>
+    <t>1 Pomorski</t>
+  </si>
+  <si>
+    <t>1 Witek</t>
+  </si>
+  <si>
+    <t>2 Duljević</t>
+  </si>
+  <si>
+    <t>4 Podliński</t>
+  </si>
+  <si>
+    <t>1 Sinior</t>
+  </si>
+  <si>
+    <t>1 Mezghrani</t>
+  </si>
+  <si>
+    <t>4 Szczepan</t>
+  </si>
+  <si>
+    <t>5 Zwoilński</t>
+  </si>
+  <si>
+    <t>1 Szot</t>
+  </si>
+  <si>
+    <t>2 Duda</t>
+  </si>
+  <si>
+    <t>1 Gaza</t>
+  </si>
+  <si>
+    <t>1 Makowski</t>
+  </si>
+  <si>
+    <t>2 Stangret</t>
+  </si>
+  <si>
+    <t>1 Kurtaran</t>
+  </si>
+  <si>
+    <t>4 Musik</t>
   </si>
 </sst>
 </file>
@@ -978,8 +1035,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1398,9 +1455,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1425,62 +1482,66 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1573,9 +1634,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1613,9 +1674,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1648,9 +1709,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1683,9 +1761,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1865,31 +1960,31 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" thickBot="1">
+    <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +2040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19">
+    <row r="2" spans="1:20" ht="18">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2004,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19">
+    <row r="3" spans="1:20" ht="18">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="20" thickBot="1">
+    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2122,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19">
+    <row r="5" spans="1:20" ht="18">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20" thickBot="1">
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2240,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20" thickBot="1">
+    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -2316,401 +2411,401 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:20" ht="18">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="28" t="s">
+      <c r="S8" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="31"/>
+      <c r="B10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="31"/>
+      <c r="B11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="32"/>
-      <c r="B10" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="32"/>
-      <c r="B11" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="27" t="s">
+      <c r="S11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="30"/>
+      <c r="B12" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>77</v>
+      <c r="L12" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="N12" s="12"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="24"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="27" t="s">
+      <c r="R12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="S12" s="29" t="s">
-        <v>95</v>
+      <c r="S12" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>110</v>
+      <c r="E13" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="27" t="s">
-        <v>76</v>
+      <c r="M13" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="O13" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" s="24"/>
+      <c r="O13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="23"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>97</v>
+      <c r="R13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="27" t="s">
-        <v>108</v>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="26" t="s">
-        <v>82</v>
+      <c r="I14" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="24"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="27" t="s">
-        <v>78</v>
+      <c r="M14" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="N14" s="12"/>
-      <c r="O14" s="27" t="s">
-        <v>115</v>
+      <c r="O14" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="S14" s="29" t="s">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="27" t="s">
-        <v>149</v>
+      <c r="I15" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="27" t="s">
-        <v>79</v>
+      <c r="M15" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="27" t="s">
-        <v>140</v>
+      <c r="O15" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="29" t="s">
-        <v>96</v>
+      <c r="S15" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="27" t="s">
-        <v>107</v>
+      <c r="E16" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="27" t="s">
-        <v>151</v>
+      <c r="I16" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="26" t="s">
-        <v>312</v>
+      <c r="O16" s="25" t="s">
+        <v>299</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="29" t="s">
-        <v>135</v>
+      <c r="S16" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="T16" s="12"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2718,7 +2813,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="12"/>
@@ -2734,7 +2829,7 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="G18" s="12"/>
@@ -2745,9 +2840,9 @@
       <c r="S18" s="14"/>
       <c r="T18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="16" thickBot="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+    <row r="19" spans="1:20" ht="15" thickBot="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="D19" s="12"/>
       <c r="G19" s="12"/>
       <c r="I19" s="12"/>
@@ -2756,388 +2851,388 @@
       <c r="S19" s="14"/>
       <c r="T19" s="12"/>
     </row>
-    <row r="20" spans="1:20" ht="19">
+    <row r="20" spans="1:20" ht="18">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" ht="18">
+      <c r="A21" s="6"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="J21" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="S21" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" ht="18">
+      <c r="A23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="S23" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="67"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" ht="18">
+      <c r="A25" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="R25" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="31"/>
+      <c r="B26" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="S20" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="1:20" ht="19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="37" t="s">
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" thickBot="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="S21" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="1:20" ht="20" thickBot="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="1:20" ht="19">
-      <c r="A23" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="N23" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="O23" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q23" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="R23" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S23" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="T23" s="12"/>
-    </row>
-    <row r="24" spans="1:20" ht="20" thickBot="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57" t="s">
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="O24" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="1:20" ht="19">
-      <c r="A25" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="P25" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="S25" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="32"/>
-      <c r="B26" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="12"/>
-    </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" ht="20" thickBot="1">
-      <c r="A28" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="70">
+      <c r="B28" s="69">
         <v>-1.0669999999999999</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="70">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="70">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="70">
         <v>3.0670000000000002</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="70">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="70">
         <v>-1.0880000000000001</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="70">
         <v>2.0089999999999999</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="70">
         <v>0.47699999999999998</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="70">
         <v>0.55900000000000005</v>
       </c>
-      <c r="K28" s="71">
+      <c r="K28" s="70">
         <v>0.51600000000000001</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L28" s="70">
         <v>-0.49</v>
       </c>
-      <c r="M28" s="71">
+      <c r="M28" s="70">
         <v>0.2</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="70">
         <v>-1.3939999999999999</v>
       </c>
-      <c r="O28" s="71">
+      <c r="O28" s="70">
         <v>1.056</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="70">
         <v>1.028</v>
       </c>
-      <c r="Q28" s="71">
+      <c r="Q28" s="70">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="R28" s="71">
+      <c r="R28" s="70">
         <v>0.622</v>
       </c>
-      <c r="S28" s="72">
+      <c r="S28" s="71">
         <v>1.6120000000000001</v>
       </c>
       <c r="T28" s="12"/>
@@ -3208,34 +3303,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB85024-32B7-4AEB-A5FF-9AFE32D6E65D}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20" thickBot="1">
+    <row r="1" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3291,15 +3386,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19">
+    <row r="2" spans="1:20" ht="18">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4">
         <v>2</v>
@@ -3311,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -3320,37 +3415,37 @@
         <v>3</v>
       </c>
       <c r="J2" s="4">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
         <v>3</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
       </c>
       <c r="N2" s="4">
         <v>4</v>
       </c>
       <c r="O2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19">
+    <row r="3" spans="1:20" ht="18">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3361,13 +3456,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -3391,13 +3486,13 @@
         <v>1</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="7">
         <v>1</v>
       </c>
       <c r="P3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="7">
         <v>2</v>
@@ -3406,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="20" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3432,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="7">
         <v>2</v>
@@ -3447,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="7">
         <v>2</v>
@@ -3468,71 +3563,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19">
+    <row r="5" spans="1:20" ht="18">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4">
         <v>4</v>
       </c>
       <c r="I5" s="4">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4">
         <v>16</v>
       </c>
-      <c r="J5" s="4">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4">
-        <v>8</v>
-      </c>
-      <c r="L5" s="4">
-        <v>4</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4">
-        <v>13</v>
-      </c>
       <c r="Q5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20" thickBot="1">
+    <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -3541,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -3550,13 +3645,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="7">
         <v>5</v>
@@ -3565,38 +3660,38 @@
         <v>6</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O6" s="7">
         <v>10</v>
       </c>
       <c r="P6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
       <c r="R6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20" thickBot="1">
+    <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="10">
         <f>B5-B6</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" ref="C7:S7" si="0">C5-C6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
@@ -3612,26 +3707,26 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="0"/>
@@ -3639,391 +3734,415 @@
       </c>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19">
+    <row r="8" spans="1:20" ht="18">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>251</v>
-      </c>
       <c r="Q8" s="19"/>
-      <c r="R8" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>238</v>
+      <c r="R8" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="16"/>
-      <c r="B9" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>271</v>
+      <c r="B9" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="K9" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>252</v>
+      <c r="N9" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>329</v>
       </c>
       <c r="Q9" s="22"/>
-      <c r="R9" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="29" t="s">
-        <v>244</v>
+      <c r="R9" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="17"/>
-      <c r="B10" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>302</v>
+      <c r="B10" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="Q10" s="12"/>
-      <c r="R10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>273</v>
+      <c r="R10" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>265</v>
       </c>
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="17"/>
-      <c r="B11" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>300</v>
+      <c r="E11" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="O11" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="Q11" s="12"/>
-      <c r="R11" s="27" t="s">
-        <v>255</v>
+      <c r="R11" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="S11" s="21"/>
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="18"/>
-      <c r="B12" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>239</v>
+      <c r="B12" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>235</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="27" t="s">
-        <v>237</v>
+      <c r="E12" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="27" t="s">
-        <v>307</v>
+      <c r="G12" s="26" t="s">
+        <v>295</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>294</v>
+      <c r="I12" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>283</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>301</v>
+        <v>63</v>
+      </c>
+      <c r="N12" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="O12" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>289</v>
       </c>
       <c r="Q12" s="12"/>
-      <c r="R12" s="27" t="s">
-        <v>295</v>
+      <c r="R12" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="17"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="27" t="s">
-        <v>230</v>
+      <c r="B13" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="27" t="s">
-        <v>308</v>
-      </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" s="12"/>
+      <c r="J13" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="75" t="s">
+        <v>311</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>258</v>
+      <c r="M13" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>248</v>
       </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="27" t="s">
-        <v>296</v>
+      <c r="R13" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="27" t="s">
-        <v>275</v>
+      <c r="E14" s="75" t="s">
+        <v>310</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="12"/>
+      <c r="I14" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J14" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14" s="75" t="s">
+        <v>322</v>
+      </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="27" t="s">
-        <v>259</v>
+      <c r="M14" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="75" t="s">
+        <v>328</v>
       </c>
       <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+      <c r="R14" s="26" t="s">
+        <v>284</v>
+      </c>
       <c r="S14" s="13"/>
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="17"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="27" t="s">
-        <v>227</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="M15" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>230</v>
+      </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="75" t="s">
+        <v>330</v>
+      </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="13"/>
@@ -4032,26 +4151,29 @@
     <row r="16" spans="1:20">
       <c r="A16" s="17"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="27" t="s">
-        <v>71</v>
+      <c r="C16" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="27" t="s">
-        <v>291</v>
+      <c r="E16" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="27" t="s">
-        <v>228</v>
+      <c r="I16" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="N16" s="26" t="s">
+        <v>276</v>
+      </c>
       <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="26" t="s">
+        <v>253</v>
+      </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="13"/>
@@ -4060,22 +4182,26 @@
     <row r="17" spans="1:20">
       <c r="A17" s="17"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="27" t="s">
-        <v>240</v>
+      <c r="C17" s="26" t="s">
+        <v>236</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="26" t="s">
+        <v>267</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="27" t="s">
-        <v>224</v>
+      <c r="I17" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="N17" s="75" t="s">
+        <v>314</v>
+      </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -4088,7 +4214,9 @@
       <c r="B18" s="12"/>
       <c r="D18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="75" t="s">
+        <v>308</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="M18" s="12"/>
       <c r="R18" s="12"/>
@@ -4100,7 +4228,9 @@
       <c r="B19" s="12"/>
       <c r="D19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="75" t="s">
+        <v>317</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="M19" s="12"/>
       <c r="S19" s="14"/>
@@ -4108,7 +4238,9 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="18"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="75" t="s">
+        <v>318</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="M20" s="12"/>
       <c r="S20" s="14"/>
@@ -4484,8 +4616,8 @@
       <c r="T38" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M8:M14">
-    <sortCondition descending="1" ref="M8:M14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R9:R14">
+    <sortCondition descending="1" ref="R8:R14"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksm\Downloads\Inne\Football-season-Poisson-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA7B8CF-3973-4755-BFB4-B15157BD1B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E175F6-003A-4851-B635-43B2311CCECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32052" yWindow="2220" windowWidth="21084" windowHeight="10716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ekstraklasa" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="329">
   <si>
     <t>Arka</t>
   </si>
@@ -151,9 +151,6 @@
     <t>1 Nowak</t>
   </si>
   <si>
-    <t>1 Ciepiela</t>
-  </si>
-  <si>
     <t>1 Strózik</t>
   </si>
   <si>
@@ -202,18 +199,12 @@
     <t>Pogoń GM</t>
   </si>
   <si>
-    <t>1 Orlik</t>
-  </si>
-  <si>
     <t>1 Grić</t>
   </si>
   <si>
     <t>1 Masiak</t>
   </si>
   <si>
-    <t>1 Samiec-Talar</t>
-  </si>
-  <si>
     <t>1 Iwao</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
     <t>1 Jankowski</t>
   </si>
   <si>
-    <t>1 Junior</t>
-  </si>
-  <si>
     <t>2 Zielonka</t>
   </si>
   <si>
@@ -754,9 +742,6 @@
     <t>1 Grzelak</t>
   </si>
   <si>
-    <t>1 Nowakowski</t>
-  </si>
-  <si>
     <t>1 Vallejo</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
     <t>2 Mras</t>
   </si>
   <si>
-    <t>2 Carlitos</t>
-  </si>
-  <si>
     <t>1 Rafa Lopes</t>
   </si>
   <si>
@@ -793,9 +775,6 @@
     <t>3 Niewiarowski</t>
   </si>
   <si>
-    <t>3 Banaszak</t>
-  </si>
-  <si>
     <t>1 Sokołowski</t>
   </si>
   <si>
@@ -832,9 +811,6 @@
     <t>1 Bąk</t>
   </si>
   <si>
-    <t>1 Janczukowicz</t>
-  </si>
-  <si>
     <t>1 Biedrzycki</t>
   </si>
   <si>
@@ -947,19 +923,126 @@
   </si>
   <si>
     <t>1 Arak</t>
+  </si>
+  <si>
+    <t>1 Podliński</t>
+  </si>
+  <si>
+    <t>3 Carlitos</t>
+  </si>
+  <si>
+    <t>1 Krawczyk</t>
+  </si>
+  <si>
+    <t>1 Lipkowski</t>
+  </si>
+  <si>
+    <t>1 Jaroń</t>
+  </si>
+  <si>
+    <t>1 Sołowiej</t>
+  </si>
+  <si>
+    <t>1 Walski</t>
+  </si>
+  <si>
+    <t>1 Szwoch</t>
+  </si>
+  <si>
+    <t>1 Lukić</t>
+  </si>
+  <si>
+    <t>1 Prikryl</t>
+  </si>
+  <si>
+    <t>1 Piroch</t>
+  </si>
+  <si>
+    <t>1 Carbo</t>
+  </si>
+  <si>
+    <t>1 Igbekeme</t>
+  </si>
+  <si>
+    <t>1 Sanchez</t>
+  </si>
+  <si>
+    <t>1 Uryga</t>
+  </si>
+  <si>
+    <t>1 Nikaj</t>
+  </si>
+  <si>
+    <t>1 Szczepaniak</t>
+  </si>
+  <si>
+    <t>1 Konstantyn</t>
+  </si>
+  <si>
+    <t>2 Piasecki</t>
+  </si>
+  <si>
+    <t>1 Terlecki</t>
+  </si>
+  <si>
+    <t>1 Głowacki</t>
+  </si>
+  <si>
+    <t>2 Orlik</t>
+  </si>
+  <si>
+    <t>1 Ogaga</t>
+  </si>
+  <si>
+    <t>2 Junior</t>
+  </si>
+  <si>
+    <t>2 Wasin</t>
+  </si>
+  <si>
+    <t>4 Banaszak</t>
+  </si>
+  <si>
+    <t>2 Samiec-Talar</t>
+  </si>
+  <si>
+    <t>1 Karol</t>
+  </si>
+  <si>
+    <t>2 Ciepiela</t>
+  </si>
+  <si>
+    <t>1 Lewkot</t>
+  </si>
+  <si>
+    <t>3 Nowakowski</t>
+  </si>
+  <si>
+    <t>2 Janczukowicz</t>
+  </si>
+  <si>
+    <t>1 Laskowski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1511,155 +1594,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2534,228 +2622,228 @@
         <v>16</v>
       </c>
       <c r="B8" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>203</v>
-      </c>
       <c r="E8" s="79" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" s="123" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I8" s="111" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L8" s="77" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M8" s="77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N8" s="79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O8" s="79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P8" s="123" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R8" s="111" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="S8" s="85" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="14"/>
       <c r="B9" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>279</v>
+        <v>196</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>271</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J9" s="109" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K9" s="78" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L9" s="119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M9" s="78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N9" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P9" s="122" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="129" t="s">
-        <v>275</v>
+        <v>43</v>
+      </c>
+      <c r="Q9" s="128" t="s">
+        <v>267</v>
       </c>
       <c r="R9" s="78" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S9" s="86" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="25"/>
       <c r="B10" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>280</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>272</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>276</v>
+        <v>125</v>
+      </c>
+      <c r="H10" s="127" t="s">
+        <v>268</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" s="78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P10" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R10" s="78" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S10" s="86" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="25"/>
       <c r="B11" s="78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="93" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="21"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="128" t="s">
-        <v>277</v>
+      <c r="H11" s="127" t="s">
+        <v>269</v>
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="78" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K11" s="78" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="78" t="s">
         <v>37</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="140" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="128" t="s">
-        <v>273</v>
+        <v>147</v>
+      </c>
+      <c r="P11" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="127" t="s">
+        <v>265</v>
       </c>
       <c r="R11" s="109" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S11" s="86" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="24"/>
       <c r="B12" s="78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="22"/>
@@ -2763,37 +2851,37 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="109" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="141" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="128" t="s">
-        <v>274</v>
+        <v>145</v>
+      </c>
+      <c r="P12" s="140" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q12" s="127" t="s">
+        <v>266</v>
       </c>
       <c r="R12" s="109" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="S12" s="116" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="25"/>
       <c r="B13" s="78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="50"/>
       <c r="E13" s="53"/>
@@ -2802,21 +2890,21 @@
       <c r="H13" s="20"/>
       <c r="I13" s="50"/>
       <c r="J13" s="109" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K13" s="78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="47"/>
       <c r="N13" s="50"/>
       <c r="O13" s="81" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
       <c r="R13" s="109" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S13" s="66"/>
       <c r="T13" s="12"/>
@@ -2824,7 +2912,7 @@
     <row r="14" spans="1:20">
       <c r="A14" s="25"/>
       <c r="B14" s="93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="12"/>
@@ -2835,13 +2923,13 @@
       <c r="I14" s="50"/>
       <c r="J14" s="53"/>
       <c r="K14" s="78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
       <c r="O14" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
@@ -2852,7 +2940,7 @@
     <row r="15" spans="1:20">
       <c r="A15" s="25"/>
       <c r="B15" s="78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
@@ -2863,13 +2951,13 @@
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="47"/>
       <c r="N15" s="50"/>
       <c r="O15" s="78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
@@ -2888,13 +2976,13 @@
       <c r="I16" s="12"/>
       <c r="J16" s="75"/>
       <c r="K16" s="78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="12"/>
@@ -2952,53 +3040,53 @@
         <v>10</v>
       </c>
       <c r="B20" s="90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I20" s="80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J20" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="120" t="s">
-        <v>241</v>
-      </c>
-      <c r="M20" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="O20" s="76" t="s">
-        <v>69</v>
-      </c>
       <c r="P20" s="121" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R20" s="80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S20" s="44"/>
       <c r="T20" s="12"/>
@@ -3006,49 +3094,49 @@
     <row r="21" spans="1:20" ht="18">
       <c r="A21" s="6"/>
       <c r="B21" s="96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="134" t="s">
-        <v>278</v>
+        <v>126</v>
+      </c>
+      <c r="H21" s="133" t="s">
+        <v>270</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J21" s="88" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N21" s="88" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O21" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="139" t="s">
-        <v>284</v>
+        <v>95</v>
+      </c>
+      <c r="P21" s="138" t="s">
+        <v>276</v>
       </c>
       <c r="Q21" s="88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R21" s="110" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S21" s="67"/>
       <c r="T21" s="12"/>
@@ -3056,11 +3144,11 @@
     <row r="22" spans="1:20" ht="18">
       <c r="A22" s="6"/>
       <c r="B22" s="100" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="69"/>
@@ -3073,11 +3161,11 @@
       <c r="M22" s="68"/>
       <c r="N22" s="68"/>
       <c r="O22" s="91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R22" s="68"/>
       <c r="S22" s="71"/>
@@ -3100,8 +3188,8 @@
       <c r="N23" s="63"/>
       <c r="O23" s="32"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="133" t="s">
-        <v>272</v>
+      <c r="Q23" s="132" t="s">
+        <v>264</v>
       </c>
       <c r="R23" s="63"/>
       <c r="S23" s="34"/>
@@ -3112,48 +3200,48 @@
         <v>11</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="84" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G24" s="98" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H24" s="55"/>
       <c r="I24" s="108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M24" s="108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P24" s="84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="45"/>
       <c r="R24" s="84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S24" s="87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T24" s="12"/>
     </row>
@@ -3161,7 +3249,7 @@
       <c r="A25" s="42"/>
       <c r="B25" s="57"/>
       <c r="C25" s="89" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
@@ -3170,7 +3258,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="60"/>
       <c r="J25" s="89" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
@@ -3178,22 +3266,22 @@
       <c r="N25" s="60"/>
       <c r="O25" s="58"/>
       <c r="P25" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="58"/>
       <c r="R25" s="115" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="S25" s="107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="18.600000000000001" thickBot="1">
       <c r="A26" s="42"/>
       <c r="B26" s="36"/>
-      <c r="C26" s="135" t="s">
-        <v>281</v>
+      <c r="C26" s="134" t="s">
+        <v>273</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -3202,7 +3290,7 @@
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="112" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="38"/>
@@ -3210,12 +3298,12 @@
       <c r="N26" s="37"/>
       <c r="O26" s="38"/>
       <c r="P26" s="95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="54"/>
       <c r="R26" s="37"/>
       <c r="S26" s="114" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T26" s="12"/>
     </row>
@@ -3226,28 +3314,28 @@
       <c r="B27" s="46"/>
       <c r="C27" s="49"/>
       <c r="D27" s="82" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G27" s="49"/>
-      <c r="H27" s="136" t="s">
-        <v>282</v>
+      <c r="H27" s="135" t="s">
+        <v>274</v>
       </c>
       <c r="I27" s="82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J27" s="113" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M27" s="82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
@@ -3255,7 +3343,7 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="48"/>
       <c r="S27" s="92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T27" s="12"/>
     </row>
@@ -3271,8 +3359,8 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
-      <c r="L28" s="132" t="s">
-        <v>271</v>
+      <c r="L28" s="131" t="s">
+        <v>263</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="30"/>
@@ -3281,7 +3369,7 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
       <c r="S28" s="94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T28" s="12"/>
     </row>
@@ -3361,8 +3449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB85024-32B7-4AEB-A5FF-9AFE32D6E65D}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
@@ -3405,16 +3493,16 @@
         <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
@@ -3423,19 +3511,19 @@
         <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>26</v>
@@ -3452,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -3470,10 +3558,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4">
         <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
@@ -3491,13 +3579,13 @@
         <v>2</v>
       </c>
       <c r="P2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="4">
         <v>4</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="5">
         <v>2</v>
@@ -3508,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <v>3</v>
@@ -3520,10 +3608,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -3535,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
@@ -3547,13 +3635,13 @@
         <v>1</v>
       </c>
       <c r="O3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" s="7">
         <v>2</v>
@@ -3597,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="L4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
@@ -3618,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18">
@@ -3626,58 +3714,58 @@
         <v>13</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
         <v>9</v>
       </c>
       <c r="I5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="4">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>17</v>
+      </c>
+      <c r="R5" s="4">
         <v>7</v>
       </c>
-      <c r="O5" s="4">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>16</v>
-      </c>
-      <c r="R5" s="4">
-        <v>2</v>
-      </c>
       <c r="S5" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.600000000000001" thickBot="1">
@@ -3685,22 +3773,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="7">
         <v>11</v>
       </c>
       <c r="F6" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -3709,34 +3797,34 @@
         <v>5</v>
       </c>
       <c r="J6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O6" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P6" s="7">
         <v>7</v>
       </c>
       <c r="Q6" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R6" s="7">
         <v>6</v>
       </c>
       <c r="S6" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.600000000000001" thickBot="1">
@@ -3749,11 +3837,11 @@
       </c>
       <c r="C7" s="10">
         <f t="shared" ref="C7:S7" si="0">C5-C6</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
@@ -3773,11 +3861,11 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="10">
         <f>J5-J6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
@@ -3785,15 +3873,15 @@
       </c>
       <c r="L7" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
@@ -3801,7 +3889,7 @@
       </c>
       <c r="P7" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="0"/>
@@ -3809,389 +3897,431 @@
       </c>
       <c r="R7" s="10">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="127" t="s">
-        <v>254</v>
+      <c r="B8" s="150" t="s">
+        <v>326</v>
       </c>
       <c r="C8" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>193</v>
+        <v>230</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>314</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>37</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" s="146" t="s">
-        <v>299</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="152" t="s">
+        <v>320</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="127" t="s">
-        <v>267</v>
+        <v>185</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>259</v>
       </c>
       <c r="L8" s="79" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M8" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" s="142" t="s">
-        <v>288</v>
-      </c>
-      <c r="O8" s="126" t="s">
-        <v>251</v>
+        <v>186</v>
+      </c>
+      <c r="N8" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="O8" s="150" t="s">
+        <v>321</v>
       </c>
       <c r="P8" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q8" s="137" t="s">
-        <v>283</v>
+        <v>204</v>
+      </c>
+      <c r="Q8" s="136" t="s">
+        <v>275</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="S8" s="147" t="s">
-        <v>263</v>
+        <v>175</v>
+      </c>
+      <c r="S8" s="146" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="16"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="143" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="78" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="144" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="81" t="s">
+      <c r="N9" s="147" t="s">
+        <v>319</v>
+      </c>
+      <c r="O9" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="144" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="143" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="L9" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="P9" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="145" t="s">
-        <v>294</v>
-      </c>
-      <c r="R9" s="131" t="s">
-        <v>266</v>
-      </c>
-      <c r="S9" s="105" t="s">
-        <v>212</v>
+      <c r="Q9" s="148" t="s">
+        <v>297</v>
+      </c>
+      <c r="R9" s="130" t="s">
+        <v>258</v>
+      </c>
+      <c r="S9" s="149" t="s">
+        <v>324</v>
       </c>
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="17"/>
-      <c r="B10" s="128" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>196</v>
+      <c r="B10" s="147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>189</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="129" t="s">
-        <v>257</v>
+        <v>173</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>250</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="143" t="s">
-        <v>290</v>
+        <v>163</v>
+      </c>
+      <c r="I10" s="142" t="s">
+        <v>283</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="103" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M10" s="43"/>
       <c r="N10" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="O10" s="124" t="s">
-        <v>169</v>
+        <v>233</v>
+      </c>
+      <c r="O10" s="147" t="s">
+        <v>322</v>
       </c>
       <c r="P10" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" s="122" t="s">
-        <v>248</v>
-      </c>
-      <c r="R10" s="50"/>
+        <v>178</v>
+      </c>
+      <c r="Q10" s="144" t="s">
+        <v>286</v>
+      </c>
+      <c r="R10" s="147" t="s">
+        <v>307</v>
+      </c>
       <c r="S10" s="105" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="17"/>
       <c r="B11" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="D11" s="147" t="s">
+        <v>315</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="128" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="145" t="s">
-        <v>302</v>
-      </c>
-      <c r="I11" s="143" t="s">
-        <v>291</v>
+        <v>171</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="144" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="142" t="s">
+        <v>282</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M11" s="22"/>
-      <c r="N11" s="128" t="s">
-        <v>268</v>
+      <c r="N11" s="127" t="s">
+        <v>260</v>
       </c>
       <c r="O11" s="78" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="P11" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q11" s="137" t="s">
+        <v>242</v>
+      </c>
+      <c r="R11" s="148" t="s">
+        <v>308</v>
+      </c>
+      <c r="S11" s="105" t="s">
         <v>209</v>
-      </c>
-      <c r="Q11" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="86" t="s">
-        <v>38</v>
       </c>
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="18"/>
-      <c r="B12" s="118" t="s">
-        <v>238</v>
+      <c r="B12" s="147" t="s">
+        <v>325</v>
       </c>
       <c r="C12" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="12"/>
       <c r="E12" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="144" t="s">
-        <v>300</v>
-      </c>
-      <c r="I12" s="50"/>
+        <v>174</v>
+      </c>
+      <c r="F12" s="147" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="147" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" s="143" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="142" t="s">
+        <v>281</v>
+      </c>
       <c r="J12" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="50"/>
+        <v>170</v>
+      </c>
+      <c r="K12" s="147" t="s">
+        <v>303</v>
+      </c>
       <c r="L12" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="22"/>
-      <c r="N12" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="78" t="s">
-        <v>36</v>
+      <c r="N12" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="125" t="s">
+        <v>246</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="105" t="s">
-        <v>214</v>
+        <v>165</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="R12" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="S12" s="149" t="s">
+        <v>323</v>
       </c>
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="17"/>
-      <c r="B13" s="109" t="s">
-        <v>239</v>
+      <c r="B13" s="147" t="s">
+        <v>328</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>231</v>
+      </c>
+      <c r="D13" s="147" t="s">
+        <v>316</v>
+      </c>
       <c r="E13" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="F13" s="147" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="147" t="s">
+        <v>313</v>
+      </c>
       <c r="H13" s="93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I13" s="50"/>
-      <c r="J13" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="K13" s="50"/>
+      <c r="J13" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="147" t="s">
+        <v>304</v>
+      </c>
       <c r="L13" s="81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M13" s="21"/>
-      <c r="N13" s="141" t="s">
-        <v>287</v>
+      <c r="N13" s="140" t="s">
+        <v>279</v>
       </c>
       <c r="O13" s="78" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P13" s="78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="130" t="s">
-        <v>264</v>
+        <v>203</v>
+      </c>
+      <c r="R13" s="147" t="s">
+        <v>310</v>
+      </c>
+      <c r="S13" s="105" t="s">
+        <v>210</v>
       </c>
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17"/>
-      <c r="B14" s="128" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="B14" s="118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="127" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>193</v>
+      </c>
       <c r="E14" s="103" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F14" s="50"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="144" t="s">
-        <v>303</v>
+      <c r="H14" s="143" t="s">
+        <v>295</v>
       </c>
       <c r="I14" s="50"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="148" t="s">
+        <v>301</v>
+      </c>
       <c r="K14" s="50"/>
-      <c r="L14" s="128" t="s">
-        <v>262</v>
+      <c r="L14" s="127" t="s">
+        <v>255</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="50"/>
-      <c r="O14" s="125" t="s">
-        <v>253</v>
-      </c>
-      <c r="P14" s="144" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q14" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="13"/>
+      <c r="O14" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="143" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="R14" s="147" t="s">
+        <v>311</v>
+      </c>
+      <c r="S14" s="129" t="s">
+        <v>257</v>
+      </c>
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="17"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="128" t="s">
         <v>261</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="129" t="s">
-        <v>269</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="128" t="s">
-        <v>255</v>
+      <c r="H15" s="127" t="s">
+        <v>248</v>
       </c>
       <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="J15" s="147" t="s">
+        <v>302</v>
+      </c>
       <c r="K15" s="50"/>
-      <c r="L15" s="12"/>
+      <c r="L15" s="147" t="s">
+        <v>296</v>
+      </c>
       <c r="M15" s="43"/>
       <c r="N15" s="21"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="144" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q15" s="124" t="s">
-        <v>249</v>
+      <c r="P15" s="143" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q15" s="143" t="s">
+        <v>287</v>
       </c>
       <c r="R15" s="12"/>
       <c r="S15" s="13"/>
@@ -4199,11 +4329,15 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="147" t="s">
+        <v>318</v>
+      </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="128" t="s">
-        <v>270</v>
+      <c r="E16" s="127" t="s">
+        <v>262</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -4214,11 +4348,11 @@
       <c r="L16" s="12"/>
       <c r="N16" s="22"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="144" t="s">
-        <v>298</v>
+      <c r="P16" s="143" t="s">
+        <v>290</v>
       </c>
       <c r="Q16" s="125" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="13"/>
@@ -4229,8 +4363,8 @@
       <c r="B17" s="12"/>
       <c r="C17" s="22"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="144" t="s">
-        <v>292</v>
+      <c r="E17" s="143" t="s">
+        <v>284</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -4242,9 +4376,11 @@
       <c r="M17" s="12"/>
       <c r="N17" s="43"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="144" t="s">
-        <v>295</v>
+      <c r="P17" s="147" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q17" s="97" t="s">
+        <v>201</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="13"/>
@@ -4258,6 +4394,9 @@
       <c r="H18" s="43"/>
       <c r="I18" s="12"/>
       <c r="M18" s="12"/>
+      <c r="P18" s="148" t="s">
+        <v>299</v>
+      </c>
       <c r="R18" s="12"/>
       <c r="S18" s="14"/>
       <c r="T18" s="12"/>
@@ -4651,8 +4790,8 @@
       <c r="T38" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D9:D11">
-    <sortCondition descending="1" ref="D8:D11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D8:D14">
+    <sortCondition descending="1" ref="D8:D14"/>
   </sortState>
   <conditionalFormatting sqref="B7:S7">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
